--- a/Document/Tasksheet Final.xlsx
+++ b/Document/Tasksheet Final.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="103">
   <si>
     <t>No.</t>
   </si>
@@ -263,9 +263,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>Current Roll Call System</t>
-  </si>
-  <si>
     <t>Proposed Solution</t>
   </si>
   <si>
@@ -435,6 +432,12 @@
   </si>
   <si>
     <t>Trần Lê Tuấn</t>
+  </si>
+  <si>
+    <t>Current System</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -660,6 +663,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,15 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -991,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1016,16 +1019,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="8" t="s">
@@ -1036,16 +1039,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1054,12 +1059,14 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1068,13 +1075,15 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1082,58 +1091,66 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="32">
+      <c r="A8" s="28">
         <v>2</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1142,13 +1159,15 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1156,44 +1175,50 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="32">
+      <c r="A12" s="28">
         <v>3</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -1202,8 +1227,8 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1216,12 +1241,14 @@
       <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -1230,8 +1257,8 @@
       <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
@@ -1244,13 +1271,15 @@
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -1258,13 +1287,15 @@
       <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -1272,38 +1303,42 @@
       <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -1314,8 +1349,8 @@
       <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="23" t="s">
         <v>16</v>
       </c>
@@ -1328,12 +1363,14 @@
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
@@ -1342,13 +1379,15 @@
       <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -1356,40 +1395,46 @@
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H25" s="20"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -1398,13 +1443,15 @@
       <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -1412,42 +1459,48 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H29" s="20"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
@@ -1456,13 +1509,15 @@
       <c r="J30" s="21"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -1470,8 +1525,8 @@
       <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="5" t="s">
         <v>30</v>
       </c>
@@ -1484,12 +1539,14 @@
       <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
@@ -1498,13 +1555,15 @@
       <c r="J33" s="21"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
+      <c r="E34" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -1512,22 +1571,24 @@
       <c r="J34" s="21"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H35" s="20"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="5" t="s">
         <v>21</v>
       </c>
@@ -1540,8 +1601,8 @@
       <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="7" t="s">
         <v>22</v>
       </c>
@@ -1554,12 +1615,14 @@
       <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
@@ -1568,12 +1631,14 @@
       <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
@@ -1582,12 +1647,14 @@
       <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
@@ -1596,12 +1663,14 @@
       <c r="J40" s="21"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -1610,12 +1679,14 @@
       <c r="J41" s="21"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
@@ -1624,13 +1695,15 @@
       <c r="J42" s="21"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="E43" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -1638,13 +1711,15 @@
       <c r="J43" s="21"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
+      <c r="E44" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -1652,13 +1727,15 @@
       <c r="J44" s="21"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
+      <c r="E45" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -1666,13 +1743,15 @@
       <c r="J45" s="21"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
+      <c r="E46" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -1680,122 +1759,138 @@
       <c r="J46" s="21"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="F47" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="F48" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="F49" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="F50" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="G51" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H51" s="20"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="G52" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H52" s="20"/>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H53" s="20"/>
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
+      <c r="G54" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H54" s="20"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
@@ -1806,12 +1901,14 @@
       <c r="J55" s="21"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="20"/>
+      <c r="D56" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
@@ -1820,13 +1917,15 @@
       <c r="J56" s="21"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
+      <c r="E57" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
@@ -1834,8 +1933,8 @@
       <c r="J57" s="21"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="18" t="s">
         <v>28</v>
       </c>
@@ -1848,38 +1947,42 @@
       <c r="J58" s="21"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="F59" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
+      <c r="G60" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H60" s="20"/>
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="26">
+      <c r="A61" s="29">
         <v>5</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -1894,10 +1997,10 @@
       <c r="J61" s="21"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="27"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
@@ -1908,12 +2011,14 @@
       <c r="J62" s="21"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="27"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
@@ -1922,12 +2027,14 @@
       <c r="J63" s="21"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="27"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
@@ -1936,12 +2043,14 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="27"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
@@ -1950,10 +2059,10 @@
       <c r="J65" s="21"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="27"/>
-      <c r="B66" s="32"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -1964,80 +2073,90 @@
       <c r="J66" s="21"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="27"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="F67" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="27"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="F68" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="27"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="F69" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="27"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="F70" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="27"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="F71" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="27"/>
-      <c r="B72" s="32"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
@@ -2048,80 +2167,90 @@
       <c r="J72" s="21"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="27"/>
-      <c r="B73" s="32"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
+      <c r="G73" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H73" s="20"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="27"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
+      <c r="G74" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H74" s="20"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="27"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
+      <c r="G75" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H75" s="20"/>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="27"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
+      <c r="G76" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H76" s="20"/>
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="27"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
+      <c r="G77" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H77" s="20"/>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="27"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
@@ -2132,13 +2261,15 @@
       <c r="J78" s="21"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="27"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
+      <c r="E79" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
@@ -2146,13 +2277,15 @@
       <c r="J79" s="21"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="27"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
+      <c r="E80" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
@@ -2160,13 +2293,15 @@
       <c r="J80" s="21"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="27"/>
-      <c r="B81" s="32"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
+      <c r="E81" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -2174,13 +2309,15 @@
       <c r="J81" s="21"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="27"/>
-      <c r="B82" s="32"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
+      <c r="E82" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
@@ -2188,8 +2325,8 @@
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="27"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="18" t="s">
         <v>23</v>
       </c>
@@ -2202,12 +2339,14 @@
       <c r="J83" s="21"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="27"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
@@ -2216,13 +2355,15 @@
       <c r="J84" s="21"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="27"/>
-      <c r="B85" s="32"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
+      <c r="E85" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
@@ -2230,36 +2371,40 @@
       <c r="J85" s="21"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="27"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
+      <c r="F86" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
       <c r="I86" s="21"/>
       <c r="J86" s="21"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="27"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
+      <c r="G87" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H87" s="20"/>
       <c r="I87" s="21"/>
       <c r="J87" s="21"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="27"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="18" t="s">
         <v>24</v>
       </c>
@@ -2272,12 +2417,14 @@
       <c r="J88" s="21"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="27"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D89" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
@@ -2286,13 +2433,15 @@
       <c r="J89" s="21"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="27"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
+      <c r="E90" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
@@ -2300,44 +2449,50 @@
       <c r="J90" s="21"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="27"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
+      <c r="F91" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="27"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
+      <c r="G92" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H92" s="20"/>
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="26">
+      <c r="A93" s="29">
         <v>6</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D93" s="20"/>
+      <c r="D93" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
@@ -2346,10 +2501,10 @@
       <c r="J93" s="21"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="27"/>
-      <c r="B94" s="30"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
@@ -2360,12 +2515,14 @@
       <c r="J94" s="21"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="27"/>
-      <c r="B95" s="30"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
@@ -2374,12 +2531,14 @@
       <c r="J95" s="21"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="27"/>
-      <c r="B96" s="30"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D96" s="20"/>
+        <v>67</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
@@ -2388,13 +2547,15 @@
       <c r="J96" s="21"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="27"/>
-      <c r="B97" s="30"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
+      <c r="E97" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
@@ -2402,10 +2563,10 @@
       <c r="J97" s="21"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="27"/>
-      <c r="B98" s="30"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
@@ -2416,13 +2577,15 @@
       <c r="J98" s="21"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="27"/>
-      <c r="B99" s="30"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
+      <c r="E99" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
@@ -2430,13 +2593,15 @@
       <c r="J99" s="21"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="27"/>
-      <c r="B100" s="30"/>
+      <c r="A100" s="30"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
+      <c r="E100" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -2444,10 +2609,10 @@
       <c r="J100" s="21"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="27"/>
-      <c r="B101" s="30"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
@@ -2458,85 +2623,97 @@
       <c r="J101" s="21"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="27"/>
-      <c r="B102" s="30"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
+      <c r="F102" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="27"/>
-      <c r="B103" s="30"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
+      <c r="F103" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="27"/>
-      <c r="B104" s="30"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
+      <c r="F104" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
       <c r="I104" s="21"/>
       <c r="J104" s="21"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="27"/>
-      <c r="B105" s="30"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
+      <c r="G105" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H105" s="20"/>
       <c r="I105" s="21"/>
       <c r="J105" s="21"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="27"/>
-      <c r="B106" s="30"/>
+      <c r="A106" s="30"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
+      <c r="G106" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H106" s="20"/>
       <c r="I106" s="21"/>
       <c r="J106" s="21"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="28"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="33" t="s">
-        <v>97</v>
+      <c r="A107" s="31"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
+      <c r="G107" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="H107" s="20"/>
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
@@ -2788,18 +2965,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="B93:B107"/>
+    <mergeCell ref="B61:B92"/>
+    <mergeCell ref="A61:A92"/>
+    <mergeCell ref="B28:B60"/>
+    <mergeCell ref="A28:A60"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B27"/>
     <mergeCell ref="A12:A27"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="B93:B107"/>
-    <mergeCell ref="B61:B92"/>
-    <mergeCell ref="A61:A92"/>
-    <mergeCell ref="B28:B60"/>
-    <mergeCell ref="A28:A60"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:H128">
